--- a/data/trans_bre/P24_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_7_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,173 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,53</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,71</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>121,5%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.468412832802258</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.03677415945268</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.160261220820082</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.177113498703681</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.466530459477568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 24,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,2</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 22,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-59,88; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.644844118951477</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.504983508151537</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.5855995327708838</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.35322818208796</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.65463927395088</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.1259719467738</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.1178698866626</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-37,66%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>87,07%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>186,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 5,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 11,18</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 31,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-41,51; 1750,44</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.205856877334499</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.457756431499289</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.52991242580891</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-0.3528937682962233</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8664899063708223</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.799218556373879</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>40,12%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>168,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="n">
+        <v>-13.31101314779912</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.049546157775789</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.009228509263926</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.4477842659429865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,63; 9,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 14,13</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 14,13</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 18,55</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-72,78; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-21,7; 1243,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>5.692397784787404</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.9943065203287</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>31.69973261033498</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>15.43601946509163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +801,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,69</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>303,51%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>267,01%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>100,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>111,47%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.88988173779494</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.386642279923866</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.330475218234898</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>9.458569405506259</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.6293722342919554</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.771345153739275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 20,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 17,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 15,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 19,6</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>28,09; 1568,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-17,89; 1339,79</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,39; 435,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; 432,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.089226756634682</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.862393665748905</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.745288929385392</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2863035879848261</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6883104553922975</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.15916062800056</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.03721818477878</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.34028856279834</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.78594883773894</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.85298602315128</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,66</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>199,15%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-24,11%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-59,79%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>18,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 23,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 7,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,31; 2,43</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; 18,14</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 1463,45</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-85,4; 153,7</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-90,21; 52,95</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-49,19; 159,81</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>11.78311928907099</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.974426247589175</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.609004374720742</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.780629482265971</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.474275501206163</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.947112368155896</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9265663876872754</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9865243612655716</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,23</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>22,62</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>178,52%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>168,98%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>191,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>122,26%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.352862147425187</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.933790945844454</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.079567324129724</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.9955967280337066</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3793483756458562</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.08698103567038974</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2891396678884434</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1499249742660056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 25,31</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 25,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 29,04</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 47,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 505,5</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.49223006722873</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.23448770722905</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.18106196206266</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>18.6787731998716</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>17.97752171932619</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>14.68206816066218</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.078037132178578</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.896407188588423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +993,285 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>181,34%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>140,56%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>87,06%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>116,8%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>11.25992817520149</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.648968790520083</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-7.557014304401502</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>3.309823086308125</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>2.109844251955975</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.1861195419317664</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.58853949519264</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.1854842056556489</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 10,03</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 9,55</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 8,11</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 19,49</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>47,24; 501,08</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>26,25; 349,56</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 238,71</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>36,84; 239,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1.669881297001416</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.53065160186546</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-16.50763551659449</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-11.9078077285414</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.006157933749168999</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8479331759518151</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.8999782149541854</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.4987793855081384</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>24.55666132966041</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.931663237839939</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.590341701159624</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17.5403055533446</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>14.15518727971541</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.718932165717729</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.5636140746387154</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.547640996108419</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>11.06100459188847</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>11.21604789030558</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>12.13094431764069</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>22.16436521980239</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>2.269992473131238</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.392211052309789</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>2.308615353859857</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.19136658047209</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-0.7707239994582635</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.256520038048555</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-2.146686893817938</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.805840633957979</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>0.02923688113700292</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>27.703321912431</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>31.18032878352325</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>32.67752617407309</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>45.77875685789618</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>4.744958758110747</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>6.554422037714786</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.401831359591958</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.472837918671325</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>11.74801587041306</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>2.137231625872304</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.647718243818487</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.9351436740370849</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>1.178054038293031</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>3.213033547410735</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.704107756458136</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.8214876286125969</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>5.119800365161837</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.626379038993471</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.4280330997908066</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.08300806508507577</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.3366627469064301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.46177043852035</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.75855692440769</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.42162706297235</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>19.13731996213079</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>5.726966974934578</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>3.985807069326023</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.603013249714271</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>2.347070207508918</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
